--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Tnfsf11</t>
+  </si>
+  <si>
+    <t>Tnfrsf11b</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf11</t>
-  </si>
-  <si>
-    <t>Tnfrsf11b</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +540,40 @@
         <v>5.071603</v>
       </c>
       <c r="I2">
-        <v>0.9339531815638827</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9339531815638826</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>6.384429136396888</v>
+        <v>0.1159999578617778</v>
       </c>
       <c r="R2">
-        <v>57.459862227572</v>
+        <v>1.043999620756</v>
       </c>
       <c r="S2">
-        <v>0.9204157538233776</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="T2">
-        <v>0.9204157538233775</v>
+        <v>0.01654048691795588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,288 +602,102 @@
         <v>5.071603</v>
       </c>
       <c r="I3">
-        <v>0.9339531815638827</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9339531815638826</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>0.09390185656788887</v>
+        <v>6.384429136396887</v>
       </c>
       <c r="R3">
-        <v>0.8451167091109998</v>
+        <v>57.45986222757199</v>
       </c>
       <c r="S3">
-        <v>0.01353742774050508</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="T3">
-        <v>0.01353742774050508</v>
+        <v>0.9103586635352137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1047943333333333</v>
+        <v>1.690534333333333</v>
       </c>
       <c r="H4">
-        <v>0.314383</v>
+        <v>5.071603</v>
       </c>
       <c r="I4">
-        <v>0.05789471358061704</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.05789471358061703</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>0.3957636244768888</v>
+        <v>0.512662989255</v>
       </c>
       <c r="R4">
-        <v>3.561872620292</v>
+        <v>4.613966903295</v>
       </c>
       <c r="S4">
-        <v>0.05705554356960806</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="T4">
-        <v>0.05705554356960805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1047943333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.314383</v>
-      </c>
-      <c r="I5">
-        <v>0.05789471358061704</v>
-      </c>
-      <c r="J5">
-        <v>0.05789471358061703</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.166637</v>
-      </c>
-      <c r="O5">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P5">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q5">
-        <v>0.005820871107888888</v>
-      </c>
-      <c r="R5">
-        <v>0.05238783997099999</v>
-      </c>
-      <c r="S5">
-        <v>0.0008391700110089862</v>
-      </c>
-      <c r="T5">
-        <v>0.0008391700110089861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.014756</v>
-      </c>
-      <c r="H6">
-        <v>0.044268</v>
-      </c>
-      <c r="I6">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="J6">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.776574666666667</v>
-      </c>
-      <c r="N6">
-        <v>11.329724</v>
-      </c>
-      <c r="O6">
-        <v>0.9855052394405499</v>
-      </c>
-      <c r="P6">
-        <v>0.9855052394405499</v>
-      </c>
-      <c r="Q6">
-        <v>0.05572713578133334</v>
-      </c>
-      <c r="R6">
-        <v>0.501544222032</v>
-      </c>
-      <c r="S6">
-        <v>0.008033942047564307</v>
-      </c>
-      <c r="T6">
-        <v>0.008033942047564307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.014756</v>
-      </c>
-      <c r="H7">
-        <v>0.044268</v>
-      </c>
-      <c r="I7">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="J7">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.166637</v>
-      </c>
-      <c r="O7">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P7">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q7">
-        <v>0.0008196318573333333</v>
-      </c>
-      <c r="R7">
-        <v>0.007376686715999999</v>
-      </c>
-      <c r="S7">
-        <v>0.0001181628079360074</v>
-      </c>
-      <c r="T7">
-        <v>0.0001181628079360074</v>
+        <v>0.07310084954683042</v>
       </c>
     </row>
   </sheetData>
